--- a/documentation/Test Case.xlsx
+++ b/documentation/Test Case.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gdemirev/Desktop/Saucedemo training project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6318190C-D164-8F4C-8CFD-F7313F01835B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="56720" yWindow="500" windowWidth="29040" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verify the Login Functionality" sheetId="1" r:id="rId1"/>
@@ -20,19 +21,6 @@
     <sheet name="Verify the Checkout" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -99,9 +87,6 @@
     <t>TC_1.1</t>
   </si>
   <si>
-    <t>Login with valid username and valid password</t>
-  </si>
-  <si>
     <t>1. Enter username
 2. Enter password
 3. Click 'LOGIN' button</t>
@@ -127,9 +112,6 @@
   </si>
   <si>
     <t>TC_1.2</t>
-  </si>
-  <si>
-    <t>Login with invalid username and valid password</t>
   </si>
   <si>
     <t>Error message should appear and user should not be able to login</t>
@@ -735,11 +717,17 @@
   <si>
     <t>On the Complete page there is "BACK HOME" button that redirect the user to the Product page</t>
   </si>
+  <si>
+    <t>Verify that can login with valid username and valid password</t>
+  </si>
+  <si>
+    <t>Verify that can’t login with invalid username and valid password</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -848,12 +836,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -862,6 +844,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1183,25 +1171,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1205,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1233,7 +1221,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1249,7 +1237,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1253,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1281,7 +1269,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1313,194 +1301,194 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="11" t="s">
+      <c r="J9" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="H12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="J12" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1512,16 +1500,16 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"high, medium, low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H12" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Required, Automated, Not Required, Not Automated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I12" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Pass, Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J12" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Positive, Negative"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1530,25 +1518,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1552,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1580,7 +1568,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1596,7 +1584,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1612,12 +1600,12 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -1628,14 +1616,14 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1647,10 +1635,10 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I6" t="s">
@@ -1660,242 +1648,242 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="I7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>67</v>
-      </c>
       <c r="J10" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="D13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J14" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1907,16 +1895,16 @@
     <mergeCell ref="B5:J5"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J14" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Positive, Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Pass, Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H14" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Required, Automated, Not Required, Not Automated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G14" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"high, medium, low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1926,25 +1914,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +1948,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1976,7 +1964,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1992,7 +1980,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2008,12 +1996,12 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -2024,14 +2012,14 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2043,10 +2031,10 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I6" t="s">
@@ -2056,195 +2044,195 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
@@ -2261,16 +2249,16 @@
     <mergeCell ref="B5:J5"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G14" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"high, medium, low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H14" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Required, Automated, Not Required, Not Automated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Pass, Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J14" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"Positive, Negative"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2280,25 +2268,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +2302,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2330,7 +2318,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2346,7 +2334,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2362,12 +2350,12 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -2378,14 +2366,14 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2397,10 +2385,10 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I6" t="s">
@@ -2410,195 +2398,195 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="G9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
@@ -2615,16 +2603,16 @@
     <mergeCell ref="B5:J5"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J14" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Positive, Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Pass, Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H14" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Required, Automated, Not Required, Not Automated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G14" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"high, medium, low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2634,25 +2622,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2668,7 +2656,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2684,7 +2672,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2700,7 +2688,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2716,12 +2704,12 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -2732,14 +2720,14 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2751,10 +2739,10 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I6" t="s">
@@ -2764,216 +2752,216 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="F12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="E13" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
@@ -2990,16 +2978,16 @@
     <mergeCell ref="B5:J5"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G14" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"high, medium, low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H14" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Required, Automated, Not Required, Not Automated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"Pass, Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J14" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"Positive, Negative"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3009,25 +2997,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3043,7 +3031,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3059,7 +3047,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3075,7 +3063,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3091,12 +3079,12 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -3107,14 +3095,14 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3126,10 +3114,10 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I6" t="s">
@@ -3139,256 +3127,256 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="E9" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="B12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="B13" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="I13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="256" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="E14" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J14" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3400,16 +3388,16 @@
     <mergeCell ref="B5:J5"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J14" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Positive, Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Pass, Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H14" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"Required, Automated, Not Required, Not Automated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G14" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>"high, medium, low"</formula1>
     </dataValidation>
   </dataValidations>

--- a/documentation/Test Case.xlsx
+++ b/documentation/Test Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gdemirev/Desktop/Saucedemo training project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6318190C-D164-8F4C-8CFD-F7313F01835B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4809DB62-C856-8B46-861E-0CA143A016DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56720" yWindow="500" windowWidth="29040" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56720" yWindow="500" windowWidth="29040" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verify the Login Functionality" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="214">
   <si>
     <t>Autor:</t>
   </si>
@@ -129,9 +129,6 @@
     <t>TC_1.3</t>
   </si>
   <si>
-    <t>Login with valid username and invalid password</t>
-  </si>
-  <si>
     <t>${standard_user} - invalidpassword</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
   </si>
   <si>
     <t>TC_1.5</t>
-  </si>
-  <si>
-    <t>Left blank the username and password field</t>
   </si>
   <si>
     <t>1. Leave username field blank
@@ -156,9 +150,6 @@
   </si>
   <si>
     <t>TC_1.6</t>
-  </si>
-  <si>
-    <t>Left blank only the password field</t>
   </si>
   <si>
     <t>${standard_user}</t>
@@ -722,6 +713,21 @@
   </si>
   <si>
     <t>Verify that can’t login with invalid username and valid password</t>
+  </si>
+  <si>
+    <t>Verify that can't login with valid username and invalid password</t>
+  </si>
+  <si>
+    <t>Verify that can't login with invalid username and invalid password</t>
+  </si>
+  <si>
+    <t>Verify that can't login when the username and password fields are blank</t>
+  </si>
+  <si>
+    <t>Verify that can't login when only password field is blank</t>
+  </si>
+  <si>
+    <t>Verify that the "ABOUT" submenu navigate to the right page</t>
   </si>
 </sst>
 </file>
@@ -1174,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1306,10 +1312,10 @@
         <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -1338,10 +1344,10 @@
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>20</v>
@@ -1369,11 +1375,11 @@
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>20</v>
@@ -1399,13 +1405,13 @@
     </row>
     <row r="10" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
@@ -1431,20 +1437,20 @@
     </row>
     <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>30</v>
@@ -1461,22 +1467,22 @@
     </row>
     <row r="12" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>30</v>
@@ -1521,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1605,7 +1611,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -1650,26 +1656,26 @@
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>25</v>
@@ -1680,20 +1686,20 @@
     </row>
     <row r="8" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>30</v>
@@ -1710,26 +1716,26 @@
     </row>
     <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>25</v>
@@ -1740,29 +1746,29 @@
     </row>
     <row r="10" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>26</v>
@@ -1770,20 +1776,20 @@
     </row>
     <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -1800,20 +1806,20 @@
     </row>
     <row r="12" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>23</v>
@@ -1830,28 +1836,28 @@
     </row>
     <row r="13" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="F13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="G13" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>82</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>26</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="14" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>30</v>
@@ -2001,7 +2007,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -2046,26 +2052,26 @@
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>25</v>
@@ -2076,20 +2082,20 @@
     </row>
     <row r="8" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>30</v>
@@ -2106,20 +2112,20 @@
     </row>
     <row r="9" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>30</v>
@@ -2136,20 +2142,20 @@
     </row>
     <row r="10" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>30</v>
@@ -2166,20 +2172,20 @@
     </row>
     <row r="11" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>30</v>
@@ -2196,20 +2202,20 @@
     </row>
     <row r="12" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>30</v>
@@ -2355,7 +2361,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -2400,26 +2406,26 @@
     </row>
     <row r="7" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>25</v>
@@ -2430,20 +2436,20 @@
     </row>
     <row r="8" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -2460,20 +2466,20 @@
     </row>
     <row r="9" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>30</v>
@@ -2490,20 +2496,20 @@
     </row>
     <row r="10" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>30</v>
@@ -2520,20 +2526,20 @@
     </row>
     <row r="11" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>30</v>
@@ -2550,26 +2556,26 @@
     </row>
     <row r="12" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>25</v>
@@ -2709,7 +2715,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -2754,26 +2760,26 @@
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>25</v>
@@ -2784,20 +2790,20 @@
     </row>
     <row r="8" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -2814,29 +2820,29 @@
     </row>
     <row r="9" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>26</v>
@@ -2844,29 +2850,29 @@
     </row>
     <row r="10" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>26</v>
@@ -2874,20 +2880,20 @@
     </row>
     <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -2904,20 +2910,20 @@
     </row>
     <row r="12" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>30</v>
@@ -2934,19 +2940,19 @@
     </row>
     <row r="13" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>23</v>
@@ -3084,7 +3090,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -3129,29 +3135,29 @@
     </row>
     <row r="7" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>31</v>
@@ -3159,20 +3165,20 @@
     </row>
     <row r="8" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -3189,22 +3195,22 @@
     </row>
     <row r="9" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>23</v>
@@ -3221,31 +3227,31 @@
     </row>
     <row r="10" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>31</v>
@@ -3253,22 +3259,22 @@
     </row>
     <row r="11" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -3285,22 +3291,22 @@
     </row>
     <row r="12" spans="1:10" ht="256" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>30</v>
@@ -3317,22 +3323,22 @@
     </row>
     <row r="13" spans="1:10" ht="256" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>23</v>
@@ -3349,22 +3355,22 @@
     </row>
     <row r="14" spans="1:10" ht="256" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>30</v>

--- a/documentation/Test Case.xlsx
+++ b/documentation/Test Case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gdemirev/Desktop/Saucedemo training project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4809DB62-C856-8B46-861E-0CA143A016DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F553C986-BCA0-704F-B740-68634AE97ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56720" yWindow="500" windowWidth="29040" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44500" yWindow="500" windowWidth="29040" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verify the Login Functionality" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="230">
   <si>
     <t>Autor:</t>
   </si>
@@ -728,6 +728,57 @@
   </si>
   <si>
     <t>Verify that the "ABOUT" submenu navigate to the right page</t>
+  </si>
+  <si>
+    <t>Verify that the "REMOVE" button works from the product description page</t>
+  </si>
+  <si>
+    <t>1. Navigate to Products page
+2. Click the product name or product photo
+3. Click on the "REMOVE" button</t>
+  </si>
+  <si>
+    <t>1. Navigate to Products page
+2. Click on the "REMOVE" button</t>
+  </si>
+  <si>
+    <t>TC_4.7</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>The items should be added to the cart otherwise the 'REMOVE' button is not visible</t>
+  </si>
+  <si>
+    <t>TC_4.8</t>
+  </si>
+  <si>
+    <t>Verify that the "REMOVE" button works</t>
+  </si>
+  <si>
+    <t>The product is removed form the cart</t>
+  </si>
+  <si>
+    <t>The products is removed form the cart and cart is displaying the products that contains</t>
+  </si>
+  <si>
+    <t>Verify that the user can go back to the products page</t>
+  </si>
+  <si>
+    <t>TC_4.9</t>
+  </si>
+  <si>
+    <t>The user should be in product description page</t>
+  </si>
+  <si>
+    <t>1. Click on the "BACK TO PRODUCTS" button</t>
+  </si>
+  <si>
+    <t>The user is redirected to products page</t>
+  </si>
+  <si>
+    <t>The user is successfully redirected to the products page</t>
   </si>
 </sst>
 </file>
@@ -807,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -862,6 +913,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1527,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1630,7 +1684,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
@@ -1924,7 +1978,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2026,7 +2080,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
@@ -2275,10 +2329,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2380,7 +2434,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
@@ -2584,21 +2638,101 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="H14" s="6"/>
+    <row r="13" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2609,16 +2743,16 @@
     <mergeCell ref="B5:J5"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J14" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J15" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Positive, Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I15" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Pass, Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H14" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H15" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Required, Automated, Not Required, Not Automated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G14" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G15" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"high, medium, low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2632,7 +2766,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2734,7 +2868,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
@@ -3006,7 +3140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/documentation/Test Case.xlsx
+++ b/documentation/Test Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gdemirev/Desktop/Saucedemo training project/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F553C986-BCA0-704F-B740-68634AE97ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAFB228-7288-E94C-931F-604CD6E33B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44500" yWindow="500" windowWidth="29040" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56720" yWindow="500" windowWidth="29040" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verify the Login Functionality" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="246">
   <si>
     <t>Autor:</t>
   </si>
@@ -555,9 +555,6 @@
   </si>
   <si>
     <t>Verify that the user can proceed to checkout by clicking on the "CHECKOUT" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Verify that the user can continue shopping by clicking on the "CONTINUE SHOPPING" button</t>
   </si>
   <si>
     <t>The user is redirected to the Products page</t>
@@ -651,11 +648,6 @@
   </si>
   <si>
     <t>${standard_user}  - ${password}</t>
-  </si>
-  <si>
-    <t>${invalid_first_name}
-${invalid_last_name}
-${invalid_zip_code}</t>
   </si>
   <si>
     <t>${first_name}
@@ -688,9 +680,6 @@
     <t>The user can click the "FINISH" button and he is redirected to Complete page</t>
   </si>
   <si>
-    <t xml:space="preserve"> Verify that there is confirmation message on Complete page</t>
-  </si>
-  <si>
     <t>On the Complete page user is able to see confirmation message for his order</t>
   </si>
   <si>
@@ -698,9 +687,6 @@
   </si>
   <si>
     <t>TC_6.8</t>
-  </si>
-  <si>
-    <t>Verify that there is confirmation page and "Back Home" button</t>
   </si>
   <si>
     <t>On the Complete page user is able to see and click "BACK HOME" button</t>
@@ -779,6 +765,87 @@
   </si>
   <si>
     <t>The user is successfully redirected to the products page</t>
+  </si>
+  <si>
+    <t>Items should be added in the cart before going in your cart</t>
+  </si>
+  <si>
+    <t>Verify that the user can continue shopping by clicking on the "CONTINUE SHOPPING" button</t>
+  </si>
+  <si>
+    <t>Verify that there is confirmation message on Complete page</t>
+  </si>
+  <si>
+    <t>The error message will appear and user wont be able to continue</t>
+  </si>
+  <si>
+    <t>The error message 'Error: First Name is required' is displayed and user can't continue</t>
+  </si>
+  <si>
+    <t>TC_6.9</t>
+  </si>
+  <si>
+    <t>${fake_first_name}
+${fake_last_name}
+${fake_zip_code}</t>
+  </si>
+  <si>
+    <t>${first_name}</t>
+  </si>
+  <si>
+    <t>1. Navigate to Products page
+2. Click the "YOUR CART" button 
+3. Click on "CHECKOUT" button
+4. Fill the First Name field
+5. Leave the Last Name field emply
+6. Leave the Zip/Postal Code field empty
+7. Click the "CONTINUE" button</t>
+  </si>
+  <si>
+    <t>1. Navigate to Products page
+2. Click the "YOUR CART" button 
+3. Click on "CHECKOUT" button
+4. Leave the First Name field empty
+5. Leave the Last Name field emply
+6. Leave Zip/Postal Code field empty
+7. Click the "CONTINUE" button</t>
+  </si>
+  <si>
+    <t>TC_6.10</t>
+  </si>
+  <si>
+    <t>TC_6.11</t>
+  </si>
+  <si>
+    <t>${first_name}
+${last_name}</t>
+  </si>
+  <si>
+    <t>The error message 'Error: Last Name is required' is displayed and user can't continue</t>
+  </si>
+  <si>
+    <t>1. Navigate to Products page
+2. Click the "YOUR CART" button 
+3. Click on "CHECKOUT" button
+4. Fill the First Name field
+5. Fill the Last Name field
+6. Leave the Zip/Postal Code field empty
+7. Click the "CONTINUE" button</t>
+  </si>
+  <si>
+    <t>The error message 'Error: Postal Code is required' is displayed and user can't continue</t>
+  </si>
+  <si>
+    <t>Verify that user can't continue with empty fields</t>
+  </si>
+  <si>
+    <t>Verify that user can't continue with empty password field</t>
+  </si>
+  <si>
+    <t>Verify that user can't continue with empty zip code field</t>
+  </si>
+  <si>
+    <t>Verify that the  "Back Home" button redirect to products page</t>
   </si>
 </sst>
 </file>
@@ -858,7 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -913,9 +980,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1366,10 +1430,10 @@
         <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -1398,10 +1462,10 @@
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>20</v>
@@ -1430,7 +1494,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>33</v>
@@ -1462,7 +1526,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>35</v>
@@ -1494,7 +1558,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
@@ -1524,7 +1588,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>40</v>
@@ -1684,7 +1748,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
@@ -1833,7 +1897,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
@@ -2080,7 +2144,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
@@ -2331,7 +2395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2434,7 +2498,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
@@ -2640,22 +2704,22 @@
     </row>
     <row r="13" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>30</v>
@@ -2672,24 +2736,24 @@
     </row>
     <row r="14" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -2704,24 +2768,24 @@
     </row>
     <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -2766,7 +2830,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2868,7 +2932,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
@@ -3014,12 +3078,14 @@
     </row>
     <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>154</v>
       </c>
@@ -3044,7 +3110,7 @@
     </row>
     <row r="12" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>162</v>
@@ -3074,19 +3140,19 @@
     </row>
     <row r="13" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>161</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>23</v>
@@ -3138,10 +3204,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3269,20 +3335,20 @@
     </row>
     <row r="7" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
         <v>158</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
@@ -3299,20 +3365,20 @@
     </row>
     <row r="8" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -3329,22 +3395,22 @@
     </row>
     <row r="9" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>23</v>
@@ -3361,22 +3427,22 @@
     </row>
     <row r="10" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -3396,25 +3462,25 @@
         <v>153</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>25</v>
@@ -3425,22 +3491,22 @@
     </row>
     <row r="12" spans="1:10" ht="256" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>30</v>
@@ -3457,22 +3523,22 @@
     </row>
     <row r="13" spans="1:10" ht="256" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>23</v>
@@ -3489,22 +3555,22 @@
     </row>
     <row r="14" spans="1:10" ht="256" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>30</v>
@@ -3517,6 +3583,100 @@
       </c>
       <c r="J14" s="9" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="224" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="240" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3528,16 +3688,16 @@
     <mergeCell ref="B5:J5"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J14" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J17" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Positive, Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I17" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Pass, Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H14" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H17" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"Required, Automated, Not Required, Not Automated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G14" xr:uid="{00000000-0002-0000-0500-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G17" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>"high, medium, low"</formula1>
     </dataValidation>
   </dataValidations>
